--- a/6_month_learning_path.xlsx
+++ b/6_month_learning_path.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="6 Month Learning Path" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Strategy" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="161">
   <si>
     <t xml:space="preserve">Day</t>
   </si>
@@ -416,6 +417,120 @@
   </si>
   <si>
     <t xml:space="preserve">🚀 Day 30 Learning Path - Core Strengthening &amp; Best Practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Topics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Goals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithms: sorting, searching, hash tables, recursion.
+Data structures: stacks, queues, linked lists, trees.
+Best practices: clean code, SOLID principles, refactoring.
+Git: advanced features (rebase, cherry-pick, stash).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solve 1–2 algorithm problems on LeetCode.
+Refactor a piece of your current project following SOLID.
+Read 1 chapter of 'Clean Code' or relevant articles.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Programming &amp; OOP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep dive into object-oriented design (composition vs inheritance, patterns).
+Design patterns: Singleton, Factory, Observer, Strategy, Decorator.
+Exception handling, logging, and testing frameworks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement one design pattern in a mini-project.
+Read articles on system design principles.
+Add unit tests to an existing module.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">System Design Basics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REST &amp; GraphQL APIs, caching strategies, database indexing.
+Microservices introduction &amp; communication (HTTP, messaging).
+CI/CD basics (GitHub Actions, Jenkins, GitLab CI).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sketch a small service architecture.
+Implement a mini REST API with proper error handling.
+Study a real-world open-source architecture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Algorithms &amp; Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trees, graphs, heaps, priority queues, dynamic programming.
+Time &amp; space complexity analysis.
+Performance optimization in your language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solve 1–2 medium-hard algorithm problems.
+Profile an existing project for performance bottlenecks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Databases &amp; Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL &amp; NoSQL differences, normalization, indexing.
+Caching: Redis, Memcached.
+Intro to cloud (AWS/GCP/Azure), containers (Docker), and orchestration (Kubernetes basics).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build a mini project using a database and cache.
+Deploy a service on a cloud free-tier.
+Learn a new tool weekly (Docker, AWS S3, or similar).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Month 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Full-stack or DevOps Integration &amp; Portfolio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrate front-end/back-end if applicable.
+Automate deployment, logging, monitoring.
+Polish a project to showcase in GitHub or portfolio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete a project that demonstrates end-to-end skills.
+Write documentation, unit tests, and prepare a 'case study' summary.
+Reflect on weaknesses and revisit topics.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extra Tips</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rotate focus: 2–3 days algorithms, 1–2 days system design, 1 day reading, 1 day project.
+Pair programming / code review: practice explaining your code, it’s key for senior skills.
+Keep a daily learning log: helps track progress and identify weak spots.
+Micro-habits: even 30 minutes consistently beats sporadic 3–4 hour sessions.</t>
   </si>
 </sst>
 </file>
@@ -505,13 +620,21 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -533,11 +656,11 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.35"/>
@@ -548,7 +671,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="5.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="5.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="49.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="11.52"/>
   </cols>
@@ -1377,4 +1500,140 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53.07"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>